--- a/Suivi_Softskills Gheeraert Steeven.xlsx
+++ b/Suivi_Softskills Gheeraert Steeven.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Afpa\DWWM-Steeven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8034B7F2-1199-4CCB-AFB8-6A324DEA7916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCFF937-756D-46EB-9623-FED40FBA87D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,20 +374,20 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="76" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,10 +680,10 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,16 +696,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -753,10 +753,10 @@
       <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -771,8 +771,8 @@
       <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -787,10 +787,10 @@
       <c r="F8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -805,10 +805,10 @@
       <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -825,10 +825,10 @@
         <v>44</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -843,8 +843,8 @@
         <v>44</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -859,8 +859,8 @@
       <c r="F12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -875,10 +875,10 @@
       <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -893,10 +893,10 @@
       <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -911,10 +911,10 @@
         <v>44</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -929,8 +929,8 @@
       <c r="F16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -945,10 +945,10 @@
       <c r="F17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -965,10 +965,10 @@
         <v>44</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -985,10 +985,10 @@
       <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1003,10 +1003,10 @@
       <c r="F20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1021,10 +1021,10 @@
       <c r="F21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1039,8 +1039,8 @@
         <v>44</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="14"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1055,10 +1055,10 @@
       <c r="F23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:8" ht="27.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13">
+      <c r="B27" s="14"/>
+      <c r="C27" s="11">
         <v>8</v>
       </c>
     </row>
